--- a/polygon.xlsx
+++ b/polygon.xlsx
@@ -11,6 +11,17 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,10 +384,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
